--- a/treinamento/resultados_treino.xlsx
+++ b/treinamento/resultados_treino.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,24 +514,22 @@
         <v>0.8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9829383607562605</v>
+        <v>0.9873439818372768</v>
       </c>
       <c r="G2" t="n">
-        <v>1890</v>
+        <v>11646</v>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>282</v>
       </c>
       <c r="I2" t="n">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>1826</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>../filtros/objeto.xlsx</t>
-        </is>
+        <v>11925</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -558,28 +556,26 @@
         <v>0.8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9839440395855217</v>
+        <v>0.9883975360510453</v>
       </c>
       <c r="G3" t="n">
-        <v>1891</v>
+        <v>11672</v>
       </c>
       <c r="H3" t="n">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="I3" t="n">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>1827</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>../filtros/objeto.xlsx</t>
-        </is>
+        <v>11925</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{'clf__C': 70, 'clf__penalty': 'l2'}</t>
+          <t>{'clf__C': 1000, 'clf__penalty': 'l2'}</t>
         </is>
       </c>
     </row>
@@ -596,25 +592,25 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0.8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9829383607562605</v>
+        <v>0.9883973217557728</v>
       </c>
       <c r="G4" t="n">
-        <v>1864</v>
+        <v>11676</v>
       </c>
       <c r="H4" t="n">
-        <v>46</v>
+        <v>252</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1899</v>
+        <v>11925</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -635,35 +631,35 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0.8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9839440395855217</v>
+        <v>0.9881417645634188</v>
       </c>
       <c r="G5" t="n">
-        <v>1862</v>
+        <v>11677</v>
       </c>
       <c r="H5" t="n">
-        <v>48</v>
+        <v>251</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1900</v>
+        <v>11927</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{'clf__C': 70, 'clf__penalty': 'l2'}</t>
+          <t>{'clf__C': 1000, 'clf__penalty': 'l1'}</t>
         </is>
       </c>
     </row>
@@ -677,35 +673,35 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>0.8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9833800294833172</v>
+        <v>0.9896796353557937</v>
       </c>
       <c r="G6" t="n">
-        <v>1859</v>
+        <v>11696</v>
       </c>
       <c r="H6" t="n">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1897</v>
+        <v>11927</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{'clf__C': 75, 'clf__penalty': 'l2'}</t>
+          <t>{'clf__C': 1000, 'clf__penalty': 'l2'}</t>
         </is>
       </c>
     </row>
@@ -722,32 +718,32 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>0.8</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9824889045324907</v>
+        <v>0.9897823527038028</v>
       </c>
       <c r="G7" t="n">
-        <v>1861</v>
+        <v>11715</v>
       </c>
       <c r="H7" t="n">
-        <v>49</v>
+        <v>213</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1898</v>
+        <v>11927</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{'clf__C': 1000, 'clf__penalty': 'l1'}</t>
+          <t>{'clf__C': 1000, 'clf__penalty': 'l2'}</t>
         </is>
       </c>
     </row>
@@ -761,35 +757,35 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0.8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.983240336331772</v>
+        <v>0.9881937215319521</v>
       </c>
       <c r="G8" t="n">
-        <v>1867</v>
+        <v>11696</v>
       </c>
       <c r="H8" t="n">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1900</v>
+        <v>11927</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{'clf__C': 1000, 'clf__penalty': 'l2'}</t>
+          <t>{'clf__C': 1000, 'clf__penalty': 'l1'}</t>
         </is>
       </c>
     </row>
@@ -803,35 +799,35 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>0.8</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9827998585083739</v>
+        <v>0.9905322475119022</v>
       </c>
       <c r="G9" t="n">
-        <v>1864</v>
+        <v>11722</v>
       </c>
       <c r="H9" t="n">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1902</v>
+        <v>11927</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{'clf__C': 65, 'clf__penalty': 'l2'}</t>
+          <t>{'clf__C': 1000, 'clf__penalty': 'l2'}</t>
         </is>
       </c>
     </row>
@@ -848,38 +844,38 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
         <v>0.8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9819198226444007</v>
+        <v>0.990717437232669</v>
       </c>
       <c r="G10" t="n">
-        <v>1862</v>
+        <v>11731</v>
       </c>
       <c r="H10" t="n">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1899</v>
+        <v>11927</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{'clf__C': 1000, 'clf__penalty': 'l1'}</t>
+          <t>{'clf__C': 1000, 'clf__penalty': 'l2'}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -887,41 +883,41 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0.8</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9820993257741962</v>
+        <v>0.7877773807319379</v>
       </c>
       <c r="G11" t="n">
-        <v>1864</v>
+        <v>11561</v>
       </c>
       <c r="H11" t="n">
-        <v>46</v>
+        <v>367</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="J11" t="n">
-        <v>1901</v>
+        <v>862</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>{'clf__C': 100, 'clf__penalty': 'l2'}</t>
+          <t>{'clf__C': 10, 'clf__penalty': 'l2'}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -929,35 +925,329 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.7827505461281494</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11557</v>
+      </c>
+      <c r="H12" t="n">
+        <v>371</v>
+      </c>
+      <c r="I12" t="n">
+        <v>123</v>
+      </c>
+      <c r="J12" t="n">
+        <v>852</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>{'clf__C': 10, 'clf__penalty': 'l2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>regressaologistica</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7785551173859673</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11589</v>
+      </c>
+      <c r="H13" t="n">
+        <v>339</v>
+      </c>
+      <c r="I13" t="n">
+        <v>139</v>
+      </c>
+      <c r="J13" t="n">
+        <v>836</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>{'clf__C': 20, 'clf__penalty': 'l2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>regressaologistica</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.79115973092451</v>
+      </c>
+      <c r="G14" t="n">
+        <v>11576</v>
+      </c>
+      <c r="H14" t="n">
+        <v>352</v>
+      </c>
+      <c r="I14" t="n">
+        <v>109</v>
+      </c>
+      <c r="J14" t="n">
+        <v>866</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>{'clf__C': 10, 'clf__penalty': 'l2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>regressaologistica</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7868317486103846</v>
+      </c>
+      <c r="G15" t="n">
+        <v>11567</v>
+      </c>
+      <c r="H15" t="n">
+        <v>361</v>
+      </c>
+      <c r="I15" t="n">
+        <v>111</v>
+      </c>
+      <c r="J15" t="n">
+        <v>864</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>{'clf__C': 10, 'clf__penalty': 'l2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>regressaologistica</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7827487236538021</v>
+      </c>
+      <c r="G16" t="n">
+        <v>11571</v>
+      </c>
+      <c r="H16" t="n">
+        <v>357</v>
+      </c>
+      <c r="I16" t="n">
+        <v>112</v>
+      </c>
+      <c r="J16" t="n">
+        <v>863</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>{'clf__C': 10, 'clf__penalty': 'l2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>regressaologistica</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>4</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7886170234625635</v>
+      </c>
+      <c r="G17" t="n">
+        <v>11632</v>
+      </c>
+      <c r="H17" t="n">
+        <v>296</v>
+      </c>
+      <c r="I17" t="n">
+        <v>138</v>
+      </c>
+      <c r="J17" t="n">
+        <v>837</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>{'clf__C': 50, 'clf__penalty': 'l2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>regressaologistica</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7851953257562202</v>
+      </c>
+      <c r="G18" t="n">
+        <v>11619</v>
+      </c>
+      <c r="H18" t="n">
+        <v>309</v>
+      </c>
+      <c r="I18" t="n">
+        <v>126</v>
+      </c>
+      <c r="J18" t="n">
+        <v>849</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>{'clf__C': 20, 'clf__penalty': 'l2'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>regressaologistica</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
         <v>3</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.9824868317843783</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1864</v>
-      </c>
-      <c r="H12" t="n">
-        <v>46</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1902</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>{'clf__C': 100, 'clf__penalty': 'l2'}</t>
+      <c r="E19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.780945814481103</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11614</v>
+      </c>
+      <c r="H19" t="n">
+        <v>314</v>
+      </c>
+      <c r="I19" t="n">
+        <v>136</v>
+      </c>
+      <c r="J19" t="n">
+        <v>839</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>{'clf__C': 20, 'clf__penalty': 'l2'}</t>
         </is>
       </c>
     </row>
